--- a/src/test/java/testData/MDP_TestCases_TestData.xlsx
+++ b/src/test/java/testData/MDP_TestCases_TestData.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="27426"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="27610"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16000" tabRatio="500" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16240" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="TestCases" sheetId="2" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="36">
   <si>
     <t>TCID</t>
   </si>
@@ -134,6 +134,9 @@
   </si>
   <si>
     <t>4000</t>
+  </si>
+  <si>
+    <t>N</t>
   </si>
 </sst>
 </file>
@@ -518,8 +521,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C4"/>
   <sheetViews>
-    <sheetView zoomScale="103" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+    <sheetView tabSelected="1" zoomScale="103" workbookViewId="0">
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="19" x14ac:dyDescent="0.2"/>
@@ -557,7 +560,7 @@
         <v>11</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>9</v>
+        <v>35</v>
       </c>
       <c r="C3" s="7" t="s">
         <v>12</v>
@@ -681,7 +684,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
